--- a/Improgress/2. Artifact and Deliverable/Test case/module1/K22T1_TeamBDS_ TC_Sưataikhoan.xlsx
+++ b/Improgress/2. Artifact and Deliverable/Test case/module1/K22T1_TeamBDS_ TC_Sưataikhoan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Capstone-Project\Improgress\2. Artifact and Deliverable\Test case\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Capstone-Project\Improgress\2. Artifact and Deliverable\Test case\module1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{718311F8-97BD-4C16-9FC8-851F373B1A3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C102E3-8F0F-495A-8BB0-1B04CF40E74E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{DC4DB269-603C-4B5B-A498-B166C8A18B92}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="20490" windowHeight="10920" xr2:uid="{DC4DB269-603C-4B5B-A498-B166C8A18B92}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="180">
   <si>
     <t>Author</t>
   </si>
@@ -296,9 +296,6 @@
     <t xml:space="preserve">Sửa tài khoản  </t>
   </si>
   <si>
-    <t xml:space="preserve">không thể sửa trường thông tin Email </t>
-  </si>
-  <si>
     <t xml:space="preserve">quay trở lại giao diện danh sách tài khoản khi nhấn nút Hủy </t>
   </si>
   <si>
@@ -365,12 +362,6 @@
     <t xml:space="preserve">Hiển thị giao diên danh sách các tài khoản </t>
   </si>
   <si>
-    <t xml:space="preserve">Nháy chuột vào trường thông tin " Email " </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trường thông tin Email bị bôi đen và không thể sửa </t>
-  </si>
-  <si>
     <t>TC-BDS-STK-2</t>
   </si>
   <si>
@@ -423,18 +414,6 @@
   </si>
   <si>
     <t xml:space="preserve">Hiển thị danh sách các tài khoản  bao gồm " tên đăng nhập  ,mật khẩu  ,/…."  </t>
-  </si>
-  <si>
-    <t>Admin đang nhập vào WebAdmin bằng tài khoản của mình 
-- Tên đăng nhập : trương quang A
-- mật khẩu : *******
-- SDT : 092554156
-- Email: A@gmail.com
-- ngày sinh :04/08/1998
--Địa chỉ : 556 nguyễn khắc nhu 
-- chức vụ : nhân viên 
-- phòng ban :phòng1
-- doanh số " 5000000</t>
   </si>
   <si>
     <t xml:space="preserve">chỉnh sửa tên đăng nhập , mật khẩu , sdt , ngày sinh , địa chĩ , chức vụ , phòng ban , doanh số </t>
@@ -448,29 +427,6 @@
 </t>
   </si>
   <si>
-    <t>Thông tin tên đăng nhập " trương quang A " được đổi thành- Tên đăng nhập : trương quang A
-- mật khẩu : *******
-- SDT : 092554156
-- Email: B@gmail.com
-- ngày sinh :08/08/1998
--Địa chỉ : 4 nguyễn khắc nhu 
-- chức vụ : nhân viên 
-- phòng ban :phòng1
-- doanh số " 5000000</t>
-  </si>
-  <si>
-    <t>Admin đang nhập vào WebAdmin bằng tài khoản của mình 
-- Tên đăng nhập : trương quang A
-- mật khẩu : *******
-- SDT : 092554156
-- Email: A@gmail.com
-- ngày sinh :04/08/1998
--Địa chỉ : 556 nguyễn khắc nhu 
-- chức vụ : nhân viên 
-- phòng ban :phòng1
-- doanh số " 5000001</t>
-  </si>
-  <si>
     <t xml:space="preserve">Không thêm được hình ảnh vì không đúng tệp png , jpg </t>
   </si>
   <si>
@@ -565,18 +521,6 @@
   </si>
   <si>
     <t>TC-BDS-STK-14</t>
-  </si>
-  <si>
-    <t>Admin đang nhập vào WebAdmin bằng tài khoản của mình 
-- Tên đăng nhập : trương quang A
-- mật khẩu : *******
-- SDT : 092554156
-- Email: A@gmail.com
-- ngày sinh :04/08/1998
--Địa chỉ : 556 nguyễn khắc nhu 
-- chức vụ : nhân viên 
-- phòng ban :phòng1
-- doanh số " 5000002</t>
   </si>
   <si>
     <t xml:space="preserve">Kiễm tra Trong giao diện sửa hiện thị thông tin tài khoản hiện có </t>
@@ -642,6 +586,53 @@
   </si>
   <si>
     <t xml:space="preserve">Hiển thị  nút  " sửa tài khoản "  ở trường thông tin cuối của danh sách </t>
+  </si>
+  <si>
+    <t xml:space="preserve">không thể sửa trường thông tin Mã Nhân Viên </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admin đang nhập vào WebAdmin bằng tài khoản của mình 
+'có thông tin bao gồm  : 
+- hình ảnh 
+- mã nhân viên : A123
+-tên đăng nhập :Trương Quang A
+- SDT : 0235464646
+- Email : truongquang@gmail.com
+- chức vụ : nhân viên 
+- Trạng thái : ẩn 
+- Button </t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách các tài khoản</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nháy chuột vào trường thông tin " Mã nhân viên " </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trường thông tin Mã nhân viên bị bôi đen và không thể sửa </t>
+  </si>
+  <si>
+    <t>chỉnh sửa tên đăng nhậpsdt , ngày sinh , địa chĩ , chức vụ ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tên đăng nhập :Trương Quang Vương
+- SDT : 0235464646
+- Email : truong
+- chức vụ : nhân viên </t>
+  </si>
+  <si>
+    <t>Thông tin tên đăng nhập " trương quang A " được đổi thành 
+-tên đăng nhập :Trương Quang Vương
+- SDT : 0235464646
+- Email : truong
+- chức vụ : nhân viên 
+- doanh số " 5000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiển thị danh sách các tài khoản  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiển thị danh sách các tài khoản </t>
   </si>
 </sst>
 </file>
@@ -1559,20 +1550,20 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1903,8 +1894,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:E20"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2113,8 +2104,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2237,11 +2228,11 @@
         <v>1</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C9" s="34"/>
       <c r="D9" s="16" t="s">
-        <v>78</v>
+        <v>170</v>
       </c>
       <c r="E9" s="32" t="s">
         <v>37</v>
@@ -2257,11 +2248,11 @@
         <v>2</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C10" s="34"/>
       <c r="D10" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E10" s="32" t="s">
         <v>36</v>
@@ -2275,11 +2266,11 @@
         <v>3</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C11" s="34"/>
       <c r="D11" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E11" s="32" t="s">
         <v>37</v>
@@ -2295,11 +2286,11 @@
         <v>4</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C12" s="34"/>
       <c r="D12" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E12" s="32" t="s">
         <v>37</v>
@@ -2313,11 +2304,11 @@
         <v>5</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C13" s="34"/>
       <c r="D13" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E13" s="32" t="s">
         <v>37</v>
@@ -2331,13 +2322,13 @@
         <v>6</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C14" s="34" t="s">
         <v>45</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E14" s="32" t="s">
         <v>35</v>
@@ -2353,13 +2344,13 @@
         <v>7</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C15" s="34" t="s">
         <v>45</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E15" s="32" t="s">
         <v>35</v>
@@ -2375,13 +2366,13 @@
         <v>8</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C16" s="34" t="s">
         <v>45</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E16" s="32" t="s">
         <v>35</v>
@@ -2397,7 +2388,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="37" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C17" s="34" t="s">
         <v>45</v>
@@ -2416,13 +2407,13 @@
     <row r="18" spans="1:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="27"/>
       <c r="B18" s="37" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C18" s="34" t="s">
         <v>45</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E18" s="32" t="s">
         <v>35</v>
@@ -2435,13 +2426,13 @@
     <row r="19" spans="1:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="27"/>
       <c r="B19" s="37" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C19" s="34" t="s">
         <v>45</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="E19" s="32" t="s">
         <v>35</v>
@@ -2454,11 +2445,11 @@
     <row r="20" spans="1:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="27"/>
       <c r="B20" s="37" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C20" s="34"/>
       <c r="D20" s="16" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E20" s="32" t="s">
         <v>35</v>
@@ -2473,13 +2464,13 @@
         <v>10</v>
       </c>
       <c r="B21" s="37" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C21" s="34" t="s">
         <v>45</v>
       </c>
       <c r="D21" s="45" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E21" s="32" t="s">
         <v>35</v>
@@ -2538,9 +2529,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2559,7 +2550,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="95" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B1" s="95"/>
       <c r="C1" s="95"/>
@@ -2604,33 +2595,33 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="94" t="s">
+      <c r="A4" s="96" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="94"/>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="94"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
     </row>
     <row r="5" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="88">
         <v>1</v>
       </c>
-      <c r="B5" s="92" t="s">
-        <v>87</v>
+      <c r="B5" s="93" t="s">
+        <v>86</v>
       </c>
       <c r="C5" s="90" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="81" t="s">
         <v>98</v>
       </c>
-      <c r="D5" s="81" t="s">
-        <v>99</v>
-      </c>
       <c r="E5" s="83" t="s">
-        <v>121</v>
+        <v>171</v>
       </c>
       <c r="F5" s="44">
         <v>1</v>
@@ -2645,7 +2636,7 @@
     </row>
     <row r="6" spans="1:9" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="89"/>
-      <c r="B6" s="93"/>
+      <c r="B6" s="94"/>
       <c r="C6" s="91"/>
       <c r="D6" s="82"/>
       <c r="E6" s="84"/>
@@ -2653,16 +2644,16 @@
         <v>2</v>
       </c>
       <c r="G6" s="42" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="H6" s="40"/>
       <c r="I6" s="40" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="89"/>
-      <c r="B7" s="93"/>
+      <c r="B7" s="94"/>
       <c r="C7" s="91"/>
       <c r="D7" s="82"/>
       <c r="E7" s="84"/>
@@ -2670,16 +2661,16 @@
         <v>3</v>
       </c>
       <c r="G7" s="42" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="H7" s="40"/>
       <c r="I7" s="40" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="89"/>
-      <c r="B8" s="93"/>
+      <c r="B8" s="94"/>
       <c r="C8" s="91"/>
       <c r="D8" s="82"/>
       <c r="E8" s="84"/>
@@ -2687,28 +2678,28 @@
         <v>4</v>
       </c>
       <c r="G8" s="42" t="s">
-        <v>101</v>
+        <v>173</v>
       </c>
       <c r="H8" s="40"/>
       <c r="I8" s="40" t="s">
-        <v>102</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="88">
         <v>1</v>
       </c>
-      <c r="B9" s="92" t="s">
-        <v>88</v>
+      <c r="B9" s="93" t="s">
+        <v>87</v>
       </c>
       <c r="C9" s="90" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D9" s="81" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E9" s="83" t="s">
-        <v>121</v>
+        <v>171</v>
       </c>
       <c r="F9" s="44">
         <v>1</v>
@@ -2723,7 +2714,7 @@
     </row>
     <row r="10" spans="1:9" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="89"/>
-      <c r="B10" s="93"/>
+      <c r="B10" s="94"/>
       <c r="C10" s="91"/>
       <c r="D10" s="82"/>
       <c r="E10" s="84"/>
@@ -2731,16 +2722,16 @@
         <v>2</v>
       </c>
       <c r="G10" s="42" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="H10" s="40"/>
       <c r="I10" s="40" t="s">
-        <v>106</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="89"/>
-      <c r="B11" s="93"/>
+      <c r="B11" s="94"/>
       <c r="C11" s="91"/>
       <c r="D11" s="82"/>
       <c r="E11" s="84"/>
@@ -2748,16 +2739,16 @@
         <v>3</v>
       </c>
       <c r="G11" s="42" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="H11" s="40"/>
       <c r="I11" s="40" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="43" customFormat="1" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="89"/>
-      <c r="B12" s="93"/>
+      <c r="B12" s="94"/>
       <c r="C12" s="91"/>
       <c r="D12" s="82"/>
       <c r="E12" s="84"/>
@@ -2765,16 +2756,16 @@
         <v>4</v>
       </c>
       <c r="G12" s="42" t="s">
-        <v>122</v>
+        <v>175</v>
       </c>
       <c r="H12" s="40" t="s">
-        <v>123</v>
+        <v>176</v>
       </c>
       <c r="I12" s="40"/>
     </row>
     <row r="13" spans="1:9" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="89"/>
-      <c r="B13" s="93"/>
+      <c r="B13" s="94"/>
       <c r="C13" s="91"/>
       <c r="D13" s="82"/>
       <c r="E13" s="84"/>
@@ -2791,7 +2782,7 @@
     </row>
     <row r="14" spans="1:9" s="43" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="89"/>
-      <c r="B14" s="93"/>
+      <c r="B14" s="94"/>
       <c r="C14" s="91"/>
       <c r="D14" s="82"/>
       <c r="E14" s="84"/>
@@ -2802,15 +2793,15 @@
         <v>70</v>
       </c>
       <c r="H14" s="40" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I14" s="40" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="89"/>
-      <c r="B15" s="93"/>
+      <c r="B15" s="94"/>
       <c r="C15" s="91"/>
       <c r="D15" s="82"/>
       <c r="E15" s="84"/>
@@ -2829,22 +2820,22 @@
     </row>
     <row r="16" spans="1:9" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="89"/>
-      <c r="B16" s="93"/>
+      <c r="B16" s="94"/>
       <c r="C16" s="91"/>
       <c r="D16" s="82"/>
       <c r="E16" s="84"/>
       <c r="F16" s="44"/>
       <c r="G16" s="42" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="H16" s="40"/>
       <c r="I16" s="40" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="43" customFormat="1" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="89"/>
-      <c r="B17" s="93"/>
+      <c r="B17" s="94"/>
       <c r="C17" s="91"/>
       <c r="D17" s="82"/>
       <c r="E17" s="84"/>
@@ -2852,28 +2843,28 @@
         <v>8</v>
       </c>
       <c r="G17" s="42" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H17" s="40"/>
       <c r="I17" s="40" t="s">
-        <v>124</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="88">
         <v>1</v>
       </c>
-      <c r="B18" s="92" t="s">
-        <v>89</v>
+      <c r="B18" s="93" t="s">
+        <v>88</v>
       </c>
       <c r="C18" s="90" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D18" s="81" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E18" s="83" t="s">
-        <v>121</v>
+        <v>171</v>
       </c>
       <c r="F18" s="44">
         <v>1</v>
@@ -2888,7 +2879,7 @@
     </row>
     <row r="19" spans="1:9" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="89"/>
-      <c r="B19" s="93"/>
+      <c r="B19" s="94"/>
       <c r="C19" s="91"/>
       <c r="D19" s="82"/>
       <c r="E19" s="84"/>
@@ -2896,16 +2887,16 @@
         <v>2</v>
       </c>
       <c r="G19" s="42" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="H19" s="40"/>
       <c r="I19" s="40" t="s">
-        <v>106</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="89"/>
-      <c r="B20" s="93"/>
+      <c r="B20" s="94"/>
       <c r="C20" s="91"/>
       <c r="D20" s="82"/>
       <c r="E20" s="84"/>
@@ -2913,16 +2904,16 @@
         <v>3</v>
       </c>
       <c r="G20" s="42" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="H20" s="40"/>
       <c r="I20" s="40" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:9" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="89"/>
-      <c r="B21" s="93"/>
+      <c r="B21" s="94"/>
       <c r="C21" s="91"/>
       <c r="D21" s="82"/>
       <c r="E21" s="84"/>
@@ -2930,16 +2921,16 @@
         <v>4</v>
       </c>
       <c r="G21" s="42" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H21" s="40" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I21" s="40"/>
     </row>
     <row r="22" spans="1:9" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="89"/>
-      <c r="B22" s="93"/>
+      <c r="B22" s="94"/>
       <c r="C22" s="91"/>
       <c r="D22" s="82"/>
       <c r="E22" s="84"/>
@@ -2956,7 +2947,7 @@
     </row>
     <row r="23" spans="1:9" s="43" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="89"/>
-      <c r="B23" s="93"/>
+      <c r="B23" s="94"/>
       <c r="C23" s="91"/>
       <c r="D23" s="82"/>
       <c r="E23" s="84"/>
@@ -2967,15 +2958,15 @@
         <v>70</v>
       </c>
       <c r="H23" s="40" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I23" s="40" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:9" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="89"/>
-      <c r="B24" s="93"/>
+      <c r="B24" s="94"/>
       <c r="C24" s="91"/>
       <c r="D24" s="82"/>
       <c r="E24" s="84"/>
@@ -2983,30 +2974,30 @@
         <v>7</v>
       </c>
       <c r="G24" s="42" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H24" s="40" t="s">
         <v>65</v>
       </c>
       <c r="I24" s="40" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="88">
         <v>1</v>
       </c>
-      <c r="B25" s="92" t="s">
-        <v>90</v>
+      <c r="B25" s="93" t="s">
+        <v>89</v>
       </c>
       <c r="C25" s="90" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D25" s="81" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E25" s="83" t="s">
-        <v>121</v>
+        <v>171</v>
       </c>
       <c r="F25" s="44">
         <v>1</v>
@@ -3021,7 +3012,7 @@
     </row>
     <row r="26" spans="1:9" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="89"/>
-      <c r="B26" s="93"/>
+      <c r="B26" s="94"/>
       <c r="C26" s="91"/>
       <c r="D26" s="82"/>
       <c r="E26" s="84"/>
@@ -3029,16 +3020,16 @@
         <v>2</v>
       </c>
       <c r="G26" s="42" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H26" s="40"/>
       <c r="I26" s="40" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="89"/>
-      <c r="B27" s="93"/>
+      <c r="B27" s="94"/>
       <c r="C27" s="91"/>
       <c r="D27" s="82"/>
       <c r="E27" s="84"/>
@@ -3046,16 +3037,16 @@
         <v>3</v>
       </c>
       <c r="G27" s="42" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="H27" s="40"/>
       <c r="I27" s="40" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="1:9" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="89"/>
-      <c r="B28" s="93"/>
+      <c r="B28" s="94"/>
       <c r="C28" s="91"/>
       <c r="D28" s="82"/>
       <c r="E28" s="84"/>
@@ -3063,16 +3054,16 @@
         <v>4</v>
       </c>
       <c r="G28" s="42" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H28" s="40" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I28" s="40"/>
     </row>
     <row r="29" spans="1:9" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="89"/>
-      <c r="B29" s="93"/>
+      <c r="B29" s="94"/>
       <c r="C29" s="91"/>
       <c r="D29" s="82"/>
       <c r="E29" s="84"/>
@@ -3089,7 +3080,7 @@
     </row>
     <row r="30" spans="1:9" s="43" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="89"/>
-      <c r="B30" s="93"/>
+      <c r="B30" s="94"/>
       <c r="C30" s="91"/>
       <c r="D30" s="82"/>
       <c r="E30" s="84"/>
@@ -3100,15 +3091,15 @@
         <v>70</v>
       </c>
       <c r="H30" s="40" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I30" s="40" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="31" spans="1:9" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="89"/>
-      <c r="B31" s="93"/>
+      <c r="B31" s="94"/>
       <c r="C31" s="91"/>
       <c r="D31" s="82"/>
       <c r="E31" s="84"/>
@@ -3127,7 +3118,7 @@
     </row>
     <row r="32" spans="1:9" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="89"/>
-      <c r="B32" s="93"/>
+      <c r="B32" s="94"/>
       <c r="C32" s="91"/>
       <c r="D32" s="82"/>
       <c r="E32" s="84"/>
@@ -3137,24 +3128,24 @@
       </c>
       <c r="H32" s="40"/>
       <c r="I32" s="40" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="88">
         <v>1</v>
       </c>
-      <c r="B33" s="92" t="s">
-        <v>91</v>
+      <c r="B33" s="93" t="s">
+        <v>90</v>
       </c>
       <c r="C33" s="90" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D33" s="81" t="s">
         <v>61</v>
       </c>
       <c r="E33" s="83" t="s">
-        <v>125</v>
+        <v>171</v>
       </c>
       <c r="F33" s="44">
         <v>1</v>
@@ -3169,7 +3160,7 @@
     </row>
     <row r="34" spans="1:9" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="89"/>
-      <c r="B34" s="93"/>
+      <c r="B34" s="94"/>
       <c r="C34" s="91"/>
       <c r="D34" s="82"/>
       <c r="E34" s="84"/>
@@ -3177,16 +3168,16 @@
         <v>2</v>
       </c>
       <c r="G34" s="42" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="H34" s="40"/>
       <c r="I34" s="40" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="89"/>
-      <c r="B35" s="93"/>
+      <c r="B35" s="94"/>
       <c r="C35" s="91"/>
       <c r="D35" s="82"/>
       <c r="E35" s="84"/>
@@ -3194,14 +3185,14 @@
         <v>3</v>
       </c>
       <c r="G35" s="42" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="H35" s="40"/>
       <c r="I35" s="40"/>
     </row>
     <row r="36" spans="1:9" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="89"/>
-      <c r="B36" s="93"/>
+      <c r="B36" s="94"/>
       <c r="C36" s="91"/>
       <c r="D36" s="82"/>
       <c r="E36" s="84"/>
@@ -3209,16 +3200,16 @@
         <v>4</v>
       </c>
       <c r="G36" s="42" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H36" s="40" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I36" s="40"/>
     </row>
     <row r="37" spans="1:9" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="89"/>
-      <c r="B37" s="93"/>
+      <c r="B37" s="94"/>
       <c r="C37" s="91"/>
       <c r="D37" s="82"/>
       <c r="E37" s="84"/>
@@ -3235,7 +3226,7 @@
     </row>
     <row r="38" spans="1:9" s="43" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="89"/>
-      <c r="B38" s="93"/>
+      <c r="B38" s="94"/>
       <c r="C38" s="91"/>
       <c r="D38" s="82"/>
       <c r="E38" s="84"/>
@@ -3249,12 +3240,12 @@
         <v>72</v>
       </c>
       <c r="I38" s="40" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="39" spans="1:9" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="89"/>
-      <c r="B39" s="93"/>
+      <c r="B39" s="94"/>
       <c r="C39" s="91"/>
       <c r="D39" s="82"/>
       <c r="E39" s="84"/>
@@ -3273,7 +3264,7 @@
     </row>
     <row r="40" spans="1:9" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="89"/>
-      <c r="B40" s="93"/>
+      <c r="B40" s="94"/>
       <c r="C40" s="91"/>
       <c r="D40" s="82"/>
       <c r="E40" s="84"/>
@@ -3285,37 +3276,37 @@
       </c>
       <c r="H40" s="40"/>
       <c r="I40" s="40" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="94" t="s">
+      <c r="A41" s="96" t="s">
         <v>63</v>
       </c>
-      <c r="B41" s="94"/>
-      <c r="C41" s="94"/>
-      <c r="D41" s="94"/>
-      <c r="E41" s="94"/>
-      <c r="F41" s="94"/>
-      <c r="G41" s="94"/>
-      <c r="H41" s="94"/>
-      <c r="I41" s="94"/>
+      <c r="B41" s="96"/>
+      <c r="C41" s="96"/>
+      <c r="D41" s="96"/>
+      <c r="E41" s="96"/>
+      <c r="F41" s="96"/>
+      <c r="G41" s="96"/>
+      <c r="H41" s="96"/>
+      <c r="I41" s="96"/>
     </row>
     <row r="42" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="88">
         <v>21</v>
       </c>
-      <c r="B42" s="92" t="s">
-        <v>92</v>
+      <c r="B42" s="93" t="s">
+        <v>91</v>
       </c>
       <c r="C42" s="90" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D42" s="81" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="E42" s="81" t="s">
-        <v>125</v>
+        <v>171</v>
       </c>
       <c r="F42" s="44">
         <v>1</v>
@@ -3330,7 +3321,7 @@
     </row>
     <row r="43" spans="1:9" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="89"/>
-      <c r="B43" s="93"/>
+      <c r="B43" s="94"/>
       <c r="C43" s="91"/>
       <c r="D43" s="82"/>
       <c r="E43" s="82"/>
@@ -3338,16 +3329,16 @@
         <v>2</v>
       </c>
       <c r="G43" s="42" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="H43" s="40"/>
       <c r="I43" s="40" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="44" spans="1:9" s="43" customFormat="1" ht="110.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="89"/>
-      <c r="B44" s="93"/>
+      <c r="B44" s="94"/>
       <c r="C44" s="91"/>
       <c r="D44" s="82"/>
       <c r="E44" s="82"/>
@@ -3355,7 +3346,7 @@
         <v>3</v>
       </c>
       <c r="G44" s="42" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="H44" s="40"/>
       <c r="I44" s="40" t="s">
@@ -3366,17 +3357,17 @@
       <c r="A45" s="88">
         <v>21</v>
       </c>
-      <c r="B45" s="92" t="s">
-        <v>93</v>
+      <c r="B45" s="93" t="s">
+        <v>92</v>
       </c>
       <c r="C45" s="90" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D45" s="81" t="s">
+        <v>164</v>
+      </c>
+      <c r="E45" s="81" t="s">
         <v>171</v>
-      </c>
-      <c r="E45" s="81" t="s">
-        <v>125</v>
       </c>
       <c r="F45" s="44">
         <v>1</v>
@@ -3391,7 +3382,7 @@
     </row>
     <row r="46" spans="1:9" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="89"/>
-      <c r="B46" s="93"/>
+      <c r="B46" s="94"/>
       <c r="C46" s="91"/>
       <c r="D46" s="82"/>
       <c r="E46" s="82"/>
@@ -3399,16 +3390,16 @@
         <v>2</v>
       </c>
       <c r="G46" s="42" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="H46" s="40"/>
       <c r="I46" s="40" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="47" spans="1:9" s="43" customFormat="1" ht="110.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="89"/>
-      <c r="B47" s="93"/>
+      <c r="B47" s="94"/>
       <c r="C47" s="91"/>
       <c r="D47" s="82"/>
       <c r="E47" s="82"/>
@@ -3416,27 +3407,29 @@
         <v>3</v>
       </c>
       <c r="G47" s="42" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="H47" s="40"/>
       <c r="I47" s="40" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="48" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="88">
         <v>21</v>
       </c>
-      <c r="B48" s="92" t="s">
-        <v>94</v>
+      <c r="B48" s="93" t="s">
+        <v>93</v>
       </c>
       <c r="C48" s="90" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D48" s="81" t="s">
-        <v>172</v>
-      </c>
-      <c r="E48" s="81"/>
+        <v>165</v>
+      </c>
+      <c r="E48" s="81" t="s">
+        <v>171</v>
+      </c>
       <c r="F48" s="44">
         <v>1</v>
       </c>
@@ -3450,7 +3443,7 @@
     </row>
     <row r="49" spans="1:9" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="89"/>
-      <c r="B49" s="93"/>
+      <c r="B49" s="94"/>
       <c r="C49" s="91"/>
       <c r="D49" s="82"/>
       <c r="E49" s="82"/>
@@ -3458,16 +3451,16 @@
         <v>2</v>
       </c>
       <c r="G49" s="42" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="H49" s="40"/>
       <c r="I49" s="40" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="50" spans="1:9" s="43" customFormat="1" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="89"/>
-      <c r="B50" s="93"/>
+      <c r="B50" s="94"/>
       <c r="C50" s="91"/>
       <c r="D50" s="82"/>
       <c r="E50" s="82"/>
@@ -3475,28 +3468,28 @@
         <v>4</v>
       </c>
       <c r="G50" s="42" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="H50" s="40"/>
       <c r="I50" s="40" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="51" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="88">
         <v>1</v>
       </c>
-      <c r="B51" s="92" t="s">
-        <v>95</v>
+      <c r="B51" s="93" t="s">
+        <v>94</v>
       </c>
       <c r="C51" s="90" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D51" s="81" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E51" s="83" t="s">
-        <v>121</v>
+        <v>171</v>
       </c>
       <c r="F51" s="44">
         <v>1</v>
@@ -3511,7 +3504,7 @@
     </row>
     <row r="52" spans="1:9" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="89"/>
-      <c r="B52" s="93"/>
+      <c r="B52" s="94"/>
       <c r="C52" s="91"/>
       <c r="D52" s="82"/>
       <c r="E52" s="84"/>
@@ -3519,16 +3512,16 @@
         <v>2</v>
       </c>
       <c r="G52" s="42" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="H52" s="40"/>
       <c r="I52" s="40" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="53" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="89"/>
-      <c r="B53" s="93"/>
+      <c r="B53" s="94"/>
       <c r="C53" s="91"/>
       <c r="D53" s="82"/>
       <c r="E53" s="84"/>
@@ -3536,16 +3529,16 @@
         <v>3</v>
       </c>
       <c r="G53" s="42" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="H53" s="40"/>
       <c r="I53" s="40" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="54" spans="1:9" s="43" customFormat="1" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="89"/>
-      <c r="B54" s="93"/>
+      <c r="B54" s="94"/>
       <c r="C54" s="91"/>
       <c r="D54" s="82"/>
       <c r="E54" s="84"/>
@@ -3553,16 +3546,16 @@
         <v>4</v>
       </c>
       <c r="G54" s="42" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H54" s="40" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="I54" s="40"/>
     </row>
     <row r="55" spans="1:9" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="89"/>
-      <c r="B55" s="93"/>
+      <c r="B55" s="94"/>
       <c r="C55" s="91"/>
       <c r="D55" s="82"/>
       <c r="E55" s="84"/>
@@ -3579,7 +3572,7 @@
     </row>
     <row r="56" spans="1:9" s="43" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="89"/>
-      <c r="B56" s="93"/>
+      <c r="B56" s="94"/>
       <c r="C56" s="91"/>
       <c r="D56" s="82"/>
       <c r="E56" s="84"/>
@@ -3590,15 +3583,15 @@
         <v>70</v>
       </c>
       <c r="H56" s="40" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I56" s="40" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="57" spans="1:9" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="89"/>
-      <c r="B57" s="93"/>
+      <c r="B57" s="94"/>
       <c r="C57" s="91"/>
       <c r="D57" s="82"/>
       <c r="E57" s="84"/>
@@ -3617,7 +3610,7 @@
     </row>
     <row r="58" spans="1:9" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="89"/>
-      <c r="B58" s="93"/>
+      <c r="B58" s="94"/>
       <c r="C58" s="91"/>
       <c r="D58" s="82"/>
       <c r="E58" s="84"/>
@@ -3627,24 +3620,24 @@
       </c>
       <c r="H58" s="40"/>
       <c r="I58" s="40" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="59" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="88">
         <v>21</v>
       </c>
-      <c r="B59" s="92" t="s">
-        <v>96</v>
+      <c r="B59" s="93" t="s">
+        <v>95</v>
       </c>
       <c r="C59" s="90" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D59" s="81" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E59" s="81" t="s">
-        <v>125</v>
+        <v>171</v>
       </c>
       <c r="F59" s="44">
         <v>1</v>
@@ -3659,7 +3652,7 @@
     </row>
     <row r="60" spans="1:9" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="89"/>
-      <c r="B60" s="93"/>
+      <c r="B60" s="94"/>
       <c r="C60" s="91"/>
       <c r="D60" s="82"/>
       <c r="E60" s="82"/>
@@ -3667,16 +3660,16 @@
         <v>2</v>
       </c>
       <c r="G60" s="42" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="H60" s="40"/>
       <c r="I60" s="40" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="61" spans="1:9" s="43" customFormat="1" ht="110.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="89"/>
-      <c r="B61" s="93"/>
+      <c r="B61" s="94"/>
       <c r="C61" s="91"/>
       <c r="D61" s="82"/>
       <c r="E61" s="82"/>
@@ -3684,26 +3677,26 @@
         <v>3</v>
       </c>
       <c r="G61" s="42" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="H61" s="40"/>
       <c r="I61" s="40" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="62" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="96"/>
+      <c r="A62" s="92"/>
       <c r="B62" s="98" t="s">
-        <v>133</v>
-      </c>
-      <c r="C62" s="96" t="s">
-        <v>133</v>
+        <v>127</v>
+      </c>
+      <c r="C62" s="92" t="s">
+        <v>127</v>
       </c>
       <c r="D62" s="97" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E62" s="97" t="s">
-        <v>125</v>
+        <v>171</v>
       </c>
       <c r="F62" s="44">
         <v>1</v>
@@ -3718,7 +3711,7 @@
     </row>
     <row r="63" spans="1:9" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="91"/>
-      <c r="B63" s="93"/>
+      <c r="B63" s="94"/>
       <c r="C63" s="91"/>
       <c r="D63" s="82"/>
       <c r="E63" s="82"/>
@@ -3726,14 +3719,14 @@
         <v>2</v>
       </c>
       <c r="G63" s="42" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="H63" s="40"/>
       <c r="I63" s="40"/>
     </row>
     <row r="64" spans="1:9" s="43" customFormat="1" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="91"/>
-      <c r="B64" s="93"/>
+      <c r="B64" s="94"/>
       <c r="C64" s="91"/>
       <c r="D64" s="82"/>
       <c r="E64" s="82"/>
@@ -3741,11 +3734,11 @@
         <v>3</v>
       </c>
       <c r="G64" s="42" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="H64" s="40"/>
       <c r="I64" s="40" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="65" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3753,16 +3746,16 @@
         <v>1</v>
       </c>
       <c r="B65" s="85" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C65" s="90" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D65" s="81" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E65" s="83" t="s">
-        <v>125</v>
+        <v>171</v>
       </c>
       <c r="F65" s="44">
         <v>1</v>
@@ -3785,11 +3778,11 @@
         <v>2</v>
       </c>
       <c r="G66" s="42" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="H66" s="40"/>
       <c r="I66" s="40" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="67" spans="1:9" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3802,11 +3795,11 @@
         <v>4</v>
       </c>
       <c r="G67" s="42" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="H67" s="40"/>
       <c r="I67" s="40" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="68" spans="1:9" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3819,10 +3812,10 @@
         <v>5</v>
       </c>
       <c r="G68" s="42" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="H68" s="40" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="I68" s="40"/>
     </row>
@@ -3859,7 +3852,7 @@
         <v>59</v>
       </c>
       <c r="I70" s="40" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="71" spans="1:9" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3895,7 +3888,7 @@
       </c>
       <c r="H72" s="40"/>
       <c r="I72" s="40" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="73" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3904,13 +3897,13 @@
       </c>
       <c r="B73" s="86"/>
       <c r="C73" s="90" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D73" s="81" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E73" s="83" t="s">
-        <v>125</v>
+        <v>171</v>
       </c>
       <c r="F73" s="44">
         <v>1</v>
@@ -3933,11 +3926,11 @@
         <v>2</v>
       </c>
       <c r="G74" s="42" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="H74" s="40"/>
       <c r="I74" s="40" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="75" spans="1:9" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3950,11 +3943,11 @@
         <v>4</v>
       </c>
       <c r="G75" s="42" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="H75" s="40"/>
       <c r="I75" s="40" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="76" spans="1:9" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3967,10 +3960,10 @@
         <v>5</v>
       </c>
       <c r="G76" s="42" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="H76" s="40" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="I76" s="40"/>
     </row>
@@ -4004,10 +3997,10 @@
         <v>69</v>
       </c>
       <c r="H78" s="40" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="I78" s="40" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="79" spans="1:9" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4043,24 +4036,24 @@
       </c>
       <c r="H80" s="40"/>
       <c r="I80" s="40" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="81" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="88">
         <v>1</v>
       </c>
-      <c r="B81" s="92" t="s">
-        <v>144</v>
+      <c r="B81" s="93" t="s">
+        <v>138</v>
       </c>
       <c r="C81" s="90" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D81" s="81" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="E81" s="83" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="F81" s="44">
         <v>1</v>
@@ -4075,7 +4068,7 @@
     </row>
     <row r="82" spans="1:9" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="89"/>
-      <c r="B82" s="93"/>
+      <c r="B82" s="94"/>
       <c r="C82" s="91"/>
       <c r="D82" s="82"/>
       <c r="E82" s="84"/>
@@ -4083,16 +4076,16 @@
         <v>2</v>
       </c>
       <c r="G82" s="42" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="H82" s="40"/>
       <c r="I82" s="40" t="s">
-        <v>120</v>
+        <v>172</v>
       </c>
     </row>
     <row r="83" spans="1:9" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="89"/>
-      <c r="B83" s="93"/>
+      <c r="B83" s="94"/>
       <c r="C83" s="91"/>
       <c r="D83" s="82"/>
       <c r="E83" s="84"/>
@@ -4100,16 +4093,16 @@
         <v>4</v>
       </c>
       <c r="G83" s="42" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H83" s="40"/>
       <c r="I83" s="40" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="84" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="88"/>
-      <c r="B84" s="92"/>
+      <c r="B84" s="93"/>
       <c r="C84" s="90"/>
       <c r="D84" s="81"/>
       <c r="E84" s="83"/>
@@ -4120,7 +4113,7 @@
     </row>
     <row r="85" spans="1:9" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="89"/>
-      <c r="B85" s="93"/>
+      <c r="B85" s="94"/>
       <c r="C85" s="91"/>
       <c r="D85" s="82"/>
       <c r="E85" s="84"/>
@@ -4131,7 +4124,7 @@
     </row>
     <row r="86" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="89"/>
-      <c r="B86" s="93"/>
+      <c r="B86" s="94"/>
       <c r="C86" s="91"/>
       <c r="D86" s="82"/>
       <c r="E86" s="84"/>
@@ -4142,7 +4135,7 @@
     </row>
     <row r="87" spans="1:9" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="89"/>
-      <c r="B87" s="93"/>
+      <c r="B87" s="94"/>
       <c r="C87" s="91"/>
       <c r="D87" s="82"/>
       <c r="E87" s="84"/>
@@ -4174,6 +4167,9 @@
     <mergeCell ref="B62:B64"/>
     <mergeCell ref="E48:E50"/>
     <mergeCell ref="E51:E58"/>
+    <mergeCell ref="D59:D61"/>
+    <mergeCell ref="E59:E61"/>
+    <mergeCell ref="D48:D50"/>
     <mergeCell ref="A25:A32"/>
     <mergeCell ref="B25:B32"/>
     <mergeCell ref="E33:E40"/>
@@ -4186,26 +4182,8 @@
     <mergeCell ref="C18:C24"/>
     <mergeCell ref="D18:D24"/>
     <mergeCell ref="E18:E24"/>
-    <mergeCell ref="D59:D61"/>
-    <mergeCell ref="E59:E61"/>
-    <mergeCell ref="A41:I41"/>
-    <mergeCell ref="A33:A40"/>
-    <mergeCell ref="C33:C40"/>
-    <mergeCell ref="D33:D40"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="D48:D50"/>
-    <mergeCell ref="A51:A58"/>
-    <mergeCell ref="B51:B58"/>
-    <mergeCell ref="C51:C58"/>
     <mergeCell ref="D51:D58"/>
     <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="C5:C8"/>
-    <mergeCell ref="D5:D8"/>
-    <mergeCell ref="E5:E8"/>
     <mergeCell ref="A42:A44"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="C42:C44"/>
@@ -4214,8 +4192,18 @@
     <mergeCell ref="A45:A47"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="C45:C47"/>
-    <mergeCell ref="A73:A80"/>
-    <mergeCell ref="C73:C80"/>
+    <mergeCell ref="A41:I41"/>
+    <mergeCell ref="A33:A40"/>
+    <mergeCell ref="C33:C40"/>
+    <mergeCell ref="D33:D40"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="D5:D8"/>
+    <mergeCell ref="E5:E8"/>
     <mergeCell ref="A62:A64"/>
     <mergeCell ref="A48:A50"/>
     <mergeCell ref="B48:B50"/>
@@ -4223,6 +4211,9 @@
     <mergeCell ref="A59:A61"/>
     <mergeCell ref="B59:B61"/>
     <mergeCell ref="C59:C61"/>
+    <mergeCell ref="A51:A58"/>
+    <mergeCell ref="B51:B58"/>
+    <mergeCell ref="C51:C58"/>
     <mergeCell ref="D73:D80"/>
     <mergeCell ref="E73:E80"/>
     <mergeCell ref="B65:B80"/>
@@ -4230,6 +4221,8 @@
     <mergeCell ref="C65:C72"/>
     <mergeCell ref="D65:D72"/>
     <mergeCell ref="E65:E72"/>
+    <mergeCell ref="A73:A80"/>
+    <mergeCell ref="C73:C80"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Improgress/2. Artifact and Deliverable/Test case/module1/K22T1_TeamBDS_ TC_Sưataikhoan.xlsx
+++ b/Improgress/2. Artifact and Deliverable/Test case/module1/K22T1_TeamBDS_ TC_Sưataikhoan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Capstone-Project\Improgress\2. Artifact and Deliverable\Test case\module1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C102E3-8F0F-495A-8BB0-1B04CF40E74E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F969FA-815B-4BE1-B556-8969079517E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="20490" windowHeight="10920" xr2:uid="{DC4DB269-603C-4B5B-A498-B166C8A18B92}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{DC4DB269-603C-4B5B-A498-B166C8A18B92}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="183">
   <si>
     <t>Author</t>
   </si>
@@ -374,9 +374,6 @@
     <t xml:space="preserve">Hiển thị danh sách các tài khoản  bao gồm " tên đăng nhập  ,mật khẩu  ,/…." </t>
   </si>
   <si>
-    <t xml:space="preserve">Hiển thị mật khẩu dưới dạng mã hóa </t>
-  </si>
-  <si>
     <t xml:space="preserve">hiễn thị giao diện sửa tài khoản </t>
   </si>
   <si>
@@ -469,22 +466,13 @@
     <t xml:space="preserve">hiễn thị thông báo sửa tài khoản  thành công </t>
   </si>
   <si>
-    <t xml:space="preserve">Kiểm tra Hiển thị mật khẩu dưới dạng mã hóa </t>
-  </si>
-  <si>
     <t>Ở trang chủ , nhấn chọn  " quản lý tài khoản "</t>
   </si>
   <si>
     <t xml:space="preserve">Trong danh sách các tài khoản , ở trường thông tin mật khẩu </t>
   </si>
   <si>
-    <t xml:space="preserve"> Hiển thị dưới dạng mã hóa ********</t>
-  </si>
-  <si>
     <t>TR-BDS-STK-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kiểm tra hiện thị giao diện danh sách tài khoản bao gồm các trường thông tin : tên đăng nhập , mật khẩu , SDT, email , ngày sinh , địa chỉ , chức vụ , phòng ban ,doanh số , trạng thái </t>
   </si>
   <si>
     <t xml:space="preserve">Trong danh sách các tài khoản </t>
@@ -586,9 +574,6 @@
   </si>
   <si>
     <t xml:space="preserve">Hiển thị  nút  " sửa tài khoản "  ở trường thông tin cuối của danh sách </t>
-  </si>
-  <si>
-    <t xml:space="preserve">không thể sửa trường thông tin Mã Nhân Viên </t>
   </si>
   <si>
     <t xml:space="preserve">Admin đang nhập vào WebAdmin bằng tài khoản của mình 
@@ -633,6 +618,41 @@
   </si>
   <si>
     <t xml:space="preserve">Hiển thị danh sách các tài khoản </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admin đang nhập vào WebAdmin bằng tài khoản của mình 
+'có thông tin bao gồm  : 
+- hình ảnh 
+- mã nhân viên : A123
+-tên đăng nhập :Trương Quang A
+- SDT : 0235464646
+- Email : truongquang@gmail.com
+- chức vụ : nhân viên 
+- Phòng ban : kinh doanh 
+- Nhóm : 1
+- Trạng thái : ẩn 
+- Button </t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>không thể sửa trường thông tin Mã Nhân Viên ,Email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Không được hiển thị mật khẩu của người dùng </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiểm tra Không được hiển thị mật khẩu của người dùng </t>
+  </si>
+  <si>
+    <t xml:space="preserve">kiểm tra hiện thị giao diện danh sách tài khoản bao gồm các trường thông tin : tên đăng nhập , Mã nhân viên, SDT, email , ngày sinh , địa chỉ , chức vụ , phòng ban , trạng thái </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pass </t>
   </si>
 </sst>
 </file>
@@ -759,7 +779,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -784,6 +804,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="39">
     <border>
@@ -1279,7 +1305,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1516,6 +1542,24 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1894,8 +1938,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1968,7 +2012,9 @@
       <c r="B8" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="12"/>
+      <c r="C8" s="12">
+        <v>43985</v>
+      </c>
       <c r="D8" s="10" t="s">
         <v>54</v>
       </c>
@@ -2104,8 +2150,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2223,7 +2269,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="27">
         <v>1</v>
       </c>
@@ -2232,7 +2278,7 @@
       </c>
       <c r="C9" s="34"/>
       <c r="D9" s="16" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="E9" s="32" t="s">
         <v>37</v>
@@ -2257,7 +2303,9 @@
       <c r="E10" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="40"/>
+      <c r="F10" s="40" t="s">
+        <v>16</v>
+      </c>
       <c r="G10" s="33"/>
       <c r="H10" s="17"/>
     </row>
@@ -2295,7 +2343,9 @@
       <c r="E12" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="40"/>
+      <c r="F12" s="40" t="s">
+        <v>17</v>
+      </c>
       <c r="G12" s="33"/>
       <c r="H12" s="17"/>
     </row>
@@ -2313,7 +2363,9 @@
       <c r="E13" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="40"/>
+      <c r="F13" s="40" t="s">
+        <v>16</v>
+      </c>
       <c r="G13" s="33"/>
       <c r="H13" s="17"/>
     </row>
@@ -2413,7 +2465,7 @@
         <v>45</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>104</v>
+        <v>179</v>
       </c>
       <c r="E18" s="32" t="s">
         <v>35</v>
@@ -2426,13 +2478,13 @@
     <row r="19" spans="1:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="27"/>
       <c r="B19" s="37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C19" s="34" t="s">
         <v>45</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E19" s="32" t="s">
         <v>35</v>
@@ -2445,11 +2497,11 @@
     <row r="20" spans="1:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="27"/>
       <c r="B20" s="37" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C20" s="34"/>
       <c r="D20" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E20" s="32" t="s">
         <v>35</v>
@@ -2464,7 +2516,7 @@
         <v>10</v>
       </c>
       <c r="B21" s="37" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C21" s="34" t="s">
         <v>45</v>
@@ -2527,11 +2579,11 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2348A1D5-4253-4771-A133-25F9BE04457B}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I87"/>
+  <dimension ref="A1:J83"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I82" sqref="I82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2548,26 +2600,26 @@
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="95" t="s">
+    <row r="1" spans="1:10" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="101" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-    </row>
-    <row r="2" spans="1:9" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+    </row>
+    <row r="2" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="4"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>2</v>
       </c>
@@ -2593,35 +2645,38 @@
       <c r="I3" s="24" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="96" t="s">
+      <c r="J3" s="24" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="102" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-    </row>
-    <row r="5" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="88">
+      <c r="B4" s="102"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="102"/>
+    </row>
+    <row r="5" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="94">
         <v>1</v>
       </c>
-      <c r="B5" s="93" t="s">
+      <c r="B5" s="99" t="s">
         <v>86</v>
       </c>
-      <c r="C5" s="90" t="s">
+      <c r="C5" s="96" t="s">
         <v>97</v>
       </c>
-      <c r="D5" s="81" t="s">
+      <c r="D5" s="87" t="s">
         <v>98</v>
       </c>
-      <c r="E5" s="83" t="s">
-        <v>171</v>
+      <c r="E5" s="89" t="s">
+        <v>175</v>
       </c>
       <c r="F5" s="44">
         <v>1</v>
@@ -2633,73 +2688,79 @@
       <c r="I5" s="38" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="89"/>
-      <c r="B6" s="94"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="84"/>
+      <c r="J5" s="81" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="95"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="90"/>
       <c r="F6" s="44">
         <v>2</v>
       </c>
       <c r="G6" s="42" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="H6" s="40"/>
       <c r="I6" s="40" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="89"/>
-      <c r="B7" s="94"/>
-      <c r="C7" s="91"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="84"/>
+      <c r="J6" s="82"/>
+    </row>
+    <row r="7" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="95"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="97"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="90"/>
       <c r="F7" s="44">
         <v>3</v>
       </c>
       <c r="G7" s="42" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H7" s="40"/>
       <c r="I7" s="40" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="89"/>
-      <c r="B8" s="94"/>
-      <c r="C8" s="91"/>
-      <c r="D8" s="82"/>
-      <c r="E8" s="84"/>
+        <v>149</v>
+      </c>
+      <c r="J7" s="82"/>
+    </row>
+    <row r="8" spans="1:10" s="43" customFormat="1" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="95"/>
+      <c r="B8" s="100"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="90"/>
       <c r="F8" s="44">
         <v>4</v>
       </c>
       <c r="G8" s="42" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="H8" s="40"/>
       <c r="I8" s="40" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="88">
+        <v>169</v>
+      </c>
+      <c r="J8" s="83"/>
+    </row>
+    <row r="9" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="94">
         <v>1</v>
       </c>
-      <c r="B9" s="93" t="s">
+      <c r="B9" s="99" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="90" t="s">
+      <c r="C9" s="96" t="s">
         <v>100</v>
       </c>
-      <c r="D9" s="81" t="s">
+      <c r="D9" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="E9" s="83" t="s">
-        <v>171</v>
+      <c r="E9" s="89" t="s">
+        <v>175</v>
       </c>
       <c r="F9" s="44">
         <v>1</v>
@@ -2711,64 +2772,70 @@
       <c r="I9" s="38" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="89"/>
-      <c r="B10" s="94"/>
-      <c r="C10" s="91"/>
-      <c r="D10" s="82"/>
-      <c r="E10" s="84"/>
+      <c r="J9" s="81" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="95"/>
+      <c r="B10" s="100"/>
+      <c r="C10" s="97"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="90"/>
       <c r="F10" s="44">
         <v>2</v>
       </c>
       <c r="G10" s="42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H10" s="40"/>
       <c r="I10" s="40" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="89"/>
-      <c r="B11" s="94"/>
-      <c r="C11" s="91"/>
-      <c r="D11" s="82"/>
-      <c r="E11" s="84"/>
+        <v>174</v>
+      </c>
+      <c r="J10" s="82"/>
+    </row>
+    <row r="11" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="95"/>
+      <c r="B11" s="100"/>
+      <c r="C11" s="97"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="90"/>
       <c r="F11" s="44">
         <v>3</v>
       </c>
       <c r="G11" s="42" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="H11" s="40"/>
       <c r="I11" s="40" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" s="43" customFormat="1" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="89"/>
-      <c r="B12" s="94"/>
-      <c r="C12" s="91"/>
-      <c r="D12" s="82"/>
-      <c r="E12" s="84"/>
+        <v>104</v>
+      </c>
+      <c r="J11" s="82"/>
+    </row>
+    <row r="12" spans="1:10" s="43" customFormat="1" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="95"/>
+      <c r="B12" s="100"/>
+      <c r="C12" s="97"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="90"/>
       <c r="F12" s="44">
         <v>4</v>
       </c>
       <c r="G12" s="42" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="H12" s="40" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="I12" s="40"/>
-    </row>
-    <row r="13" spans="1:9" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="89"/>
-      <c r="B13" s="94"/>
-      <c r="C13" s="91"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="84"/>
+      <c r="J12" s="82"/>
+    </row>
+    <row r="13" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="95"/>
+      <c r="B13" s="100"/>
+      <c r="C13" s="97"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="90"/>
       <c r="F13" s="44">
         <v>5</v>
       </c>
@@ -2779,13 +2846,14 @@
       <c r="I13" s="40" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" s="43" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="89"/>
-      <c r="B14" s="94"/>
-      <c r="C14" s="91"/>
-      <c r="D14" s="82"/>
-      <c r="E14" s="84"/>
+      <c r="J13" s="82"/>
+    </row>
+    <row r="14" spans="1:10" s="43" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="95"/>
+      <c r="B14" s="100"/>
+      <c r="C14" s="97"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="90"/>
       <c r="F14" s="44">
         <v>6</v>
       </c>
@@ -2793,18 +2861,19 @@
         <v>70</v>
       </c>
       <c r="H14" s="40" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I14" s="40" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="89"/>
-      <c r="B15" s="94"/>
-      <c r="C15" s="91"/>
-      <c r="D15" s="82"/>
-      <c r="E15" s="84"/>
+        <v>157</v>
+      </c>
+      <c r="J14" s="82"/>
+    </row>
+    <row r="15" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="95"/>
+      <c r="B15" s="100"/>
+      <c r="C15" s="97"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="90"/>
       <c r="F15" s="44">
         <v>7</v>
       </c>
@@ -2817,54 +2886,57 @@
       <c r="I15" s="40" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="89"/>
-      <c r="B16" s="94"/>
-      <c r="C16" s="91"/>
-      <c r="D16" s="82"/>
-      <c r="E16" s="84"/>
+      <c r="J15" s="82"/>
+    </row>
+    <row r="16" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="95"/>
+      <c r="B16" s="100"/>
+      <c r="C16" s="97"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="90"/>
       <c r="F16" s="44"/>
       <c r="G16" s="42" t="s">
         <v>65</v>
       </c>
       <c r="H16" s="40"/>
       <c r="I16" s="40" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" s="43" customFormat="1" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="89"/>
-      <c r="B17" s="94"/>
-      <c r="C17" s="91"/>
-      <c r="D17" s="82"/>
-      <c r="E17" s="84"/>
+        <v>150</v>
+      </c>
+      <c r="J16" s="82"/>
+    </row>
+    <row r="17" spans="1:10" s="43" customFormat="1" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="95"/>
+      <c r="B17" s="100"/>
+      <c r="C17" s="97"/>
+      <c r="D17" s="88"/>
+      <c r="E17" s="90"/>
       <c r="F17" s="44">
         <v>8</v>
       </c>
       <c r="G17" s="42" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H17" s="40"/>
       <c r="I17" s="40" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="88">
+        <v>172</v>
+      </c>
+      <c r="J17" s="83"/>
+    </row>
+    <row r="18" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="94">
         <v>1</v>
       </c>
-      <c r="B18" s="93" t="s">
+      <c r="B18" s="99" t="s">
         <v>88</v>
       </c>
-      <c r="C18" s="90" t="s">
+      <c r="C18" s="96" t="s">
+        <v>109</v>
+      </c>
+      <c r="D18" s="87" t="s">
         <v>110</v>
       </c>
-      <c r="D18" s="81" t="s">
-        <v>111</v>
-      </c>
-      <c r="E18" s="83" t="s">
-        <v>171</v>
+      <c r="E18" s="89" t="s">
+        <v>175</v>
       </c>
       <c r="F18" s="44">
         <v>1</v>
@@ -2876,64 +2948,70 @@
       <c r="I18" s="38" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="89"/>
-      <c r="B19" s="94"/>
-      <c r="C19" s="91"/>
-      <c r="D19" s="82"/>
-      <c r="E19" s="84"/>
+      <c r="J18" s="81" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="95"/>
+      <c r="B19" s="100"/>
+      <c r="C19" s="97"/>
+      <c r="D19" s="88"/>
+      <c r="E19" s="90"/>
       <c r="F19" s="44">
         <v>2</v>
       </c>
       <c r="G19" s="42" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H19" s="40"/>
       <c r="I19" s="40" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="89"/>
-      <c r="B20" s="94"/>
-      <c r="C20" s="91"/>
-      <c r="D20" s="82"/>
-      <c r="E20" s="84"/>
+        <v>173</v>
+      </c>
+      <c r="J19" s="82"/>
+    </row>
+    <row r="20" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="95"/>
+      <c r="B20" s="100"/>
+      <c r="C20" s="97"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="90"/>
       <c r="F20" s="44">
         <v>3</v>
       </c>
       <c r="G20" s="42" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="H20" s="40"/>
       <c r="I20" s="40" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="89"/>
-      <c r="B21" s="94"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="82"/>
-      <c r="E21" s="84"/>
+        <v>104</v>
+      </c>
+      <c r="J20" s="82"/>
+    </row>
+    <row r="21" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="95"/>
+      <c r="B21" s="100"/>
+      <c r="C21" s="97"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="90"/>
       <c r="F21" s="44">
         <v>4</v>
       </c>
       <c r="G21" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="H21" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="H21" s="40" t="s">
-        <v>107</v>
-      </c>
       <c r="I21" s="40"/>
-    </row>
-    <row r="22" spans="1:9" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="89"/>
-      <c r="B22" s="94"/>
-      <c r="C22" s="91"/>
-      <c r="D22" s="82"/>
-      <c r="E22" s="84"/>
+      <c r="J21" s="82"/>
+    </row>
+    <row r="22" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="95"/>
+      <c r="B22" s="100"/>
+      <c r="C22" s="97"/>
+      <c r="D22" s="88"/>
+      <c r="E22" s="90"/>
       <c r="F22" s="44">
         <v>5</v>
       </c>
@@ -2944,13 +3022,14 @@
       <c r="I22" s="40" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" s="43" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="89"/>
-      <c r="B23" s="94"/>
-      <c r="C23" s="91"/>
-      <c r="D23" s="82"/>
-      <c r="E23" s="84"/>
+      <c r="J22" s="82"/>
+    </row>
+    <row r="23" spans="1:10" s="43" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="95"/>
+      <c r="B23" s="100"/>
+      <c r="C23" s="97"/>
+      <c r="D23" s="88"/>
+      <c r="E23" s="90"/>
       <c r="F23" s="44">
         <v>6</v>
       </c>
@@ -2958,46 +3037,48 @@
         <v>70</v>
       </c>
       <c r="H23" s="40" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I23" s="40" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="89"/>
-      <c r="B24" s="94"/>
-      <c r="C24" s="91"/>
-      <c r="D24" s="82"/>
-      <c r="E24" s="84"/>
+        <v>157</v>
+      </c>
+      <c r="J23" s="82"/>
+    </row>
+    <row r="24" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="95"/>
+      <c r="B24" s="100"/>
+      <c r="C24" s="97"/>
+      <c r="D24" s="88"/>
+      <c r="E24" s="90"/>
       <c r="F24" s="44">
         <v>7</v>
       </c>
       <c r="G24" s="42" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H24" s="40" t="s">
         <v>65</v>
       </c>
       <c r="I24" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="J24" s="83"/>
+    </row>
+    <row r="25" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="94">
+        <v>1</v>
+      </c>
+      <c r="B25" s="99" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="96" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="88">
-        <v>1</v>
-      </c>
-      <c r="B25" s="93" t="s">
-        <v>89</v>
-      </c>
-      <c r="C25" s="90" t="s">
-        <v>114</v>
-      </c>
-      <c r="D25" s="81" t="s">
-        <v>121</v>
-      </c>
-      <c r="E25" s="83" t="s">
-        <v>171</v>
+      <c r="D25" s="87" t="s">
+        <v>120</v>
+      </c>
+      <c r="E25" s="89" t="s">
+        <v>175</v>
       </c>
       <c r="F25" s="44">
         <v>1</v>
@@ -3009,13 +3090,16 @@
       <c r="I25" s="38" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="89"/>
-      <c r="B26" s="94"/>
-      <c r="C26" s="91"/>
-      <c r="D26" s="82"/>
-      <c r="E26" s="84"/>
+      <c r="J25" s="81" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="95"/>
+      <c r="B26" s="100"/>
+      <c r="C26" s="97"/>
+      <c r="D26" s="88"/>
+      <c r="E26" s="90"/>
       <c r="F26" s="44">
         <v>2</v>
       </c>
@@ -3026,47 +3110,50 @@
       <c r="I26" s="40" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="89"/>
-      <c r="B27" s="94"/>
-      <c r="C27" s="91"/>
-      <c r="D27" s="82"/>
-      <c r="E27" s="84"/>
+      <c r="J26" s="82"/>
+    </row>
+    <row r="27" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="95"/>
+      <c r="B27" s="100"/>
+      <c r="C27" s="97"/>
+      <c r="D27" s="88"/>
+      <c r="E27" s="90"/>
       <c r="F27" s="44">
         <v>3</v>
       </c>
       <c r="G27" s="42" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="H27" s="40"/>
       <c r="I27" s="40" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="89"/>
-      <c r="B28" s="94"/>
-      <c r="C28" s="91"/>
-      <c r="D28" s="82"/>
-      <c r="E28" s="84"/>
+        <v>104</v>
+      </c>
+      <c r="J27" s="82"/>
+    </row>
+    <row r="28" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="95"/>
+      <c r="B28" s="100"/>
+      <c r="C28" s="97"/>
+      <c r="D28" s="88"/>
+      <c r="E28" s="90"/>
       <c r="F28" s="44">
         <v>4</v>
       </c>
       <c r="G28" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="H28" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="H28" s="40" t="s">
-        <v>107</v>
-      </c>
       <c r="I28" s="40"/>
-    </row>
-    <row r="29" spans="1:9" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="89"/>
-      <c r="B29" s="94"/>
-      <c r="C29" s="91"/>
-      <c r="D29" s="82"/>
-      <c r="E29" s="84"/>
+      <c r="J28" s="82"/>
+    </row>
+    <row r="29" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="95"/>
+      <c r="B29" s="100"/>
+      <c r="C29" s="97"/>
+      <c r="D29" s="88"/>
+      <c r="E29" s="90"/>
       <c r="F29" s="44">
         <v>5</v>
       </c>
@@ -3077,13 +3164,14 @@
       <c r="I29" s="40" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" s="43" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="89"/>
-      <c r="B30" s="94"/>
-      <c r="C30" s="91"/>
-      <c r="D30" s="82"/>
-      <c r="E30" s="84"/>
+      <c r="J29" s="82"/>
+    </row>
+    <row r="30" spans="1:10" s="43" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="95"/>
+      <c r="B30" s="100"/>
+      <c r="C30" s="97"/>
+      <c r="D30" s="88"/>
+      <c r="E30" s="90"/>
       <c r="F30" s="44">
         <v>6</v>
       </c>
@@ -3091,18 +3179,19 @@
         <v>70</v>
       </c>
       <c r="H30" s="40" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I30" s="40" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="89"/>
-      <c r="B31" s="94"/>
-      <c r="C31" s="91"/>
-      <c r="D31" s="82"/>
-      <c r="E31" s="84"/>
+        <v>157</v>
+      </c>
+      <c r="J30" s="82"/>
+    </row>
+    <row r="31" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="95"/>
+      <c r="B31" s="100"/>
+      <c r="C31" s="97"/>
+      <c r="D31" s="88"/>
+      <c r="E31" s="90"/>
       <c r="F31" s="44">
         <v>7</v>
       </c>
@@ -3115,37 +3204,39 @@
       <c r="I31" s="40" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="89"/>
-      <c r="B32" s="94"/>
-      <c r="C32" s="91"/>
-      <c r="D32" s="82"/>
-      <c r="E32" s="84"/>
+      <c r="J31" s="82"/>
+    </row>
+    <row r="32" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="95"/>
+      <c r="B32" s="100"/>
+      <c r="C32" s="97"/>
+      <c r="D32" s="88"/>
+      <c r="E32" s="90"/>
       <c r="F32" s="44"/>
       <c r="G32" s="42" t="s">
         <v>75</v>
       </c>
       <c r="H32" s="40"/>
       <c r="I32" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="J32" s="83"/>
+    </row>
+    <row r="33" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="94">
+        <v>1</v>
+      </c>
+      <c r="B33" s="99" t="s">
+        <v>90</v>
+      </c>
+      <c r="C33" s="96" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="88">
-        <v>1</v>
-      </c>
-      <c r="B33" s="93" t="s">
-        <v>90</v>
-      </c>
-      <c r="C33" s="90" t="s">
-        <v>116</v>
-      </c>
-      <c r="D33" s="81" t="s">
+      <c r="D33" s="87" t="s">
         <v>61</v>
       </c>
-      <c r="E33" s="83" t="s">
-        <v>171</v>
+      <c r="E33" s="89" t="s">
+        <v>175</v>
       </c>
       <c r="F33" s="44">
         <v>1</v>
@@ -3157,62 +3248,68 @@
       <c r="I33" s="38" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="89"/>
-      <c r="B34" s="94"/>
-      <c r="C34" s="91"/>
-      <c r="D34" s="82"/>
-      <c r="E34" s="84"/>
+      <c r="J33" s="81" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="95"/>
+      <c r="B34" s="100"/>
+      <c r="C34" s="97"/>
+      <c r="D34" s="88"/>
+      <c r="E34" s="90"/>
       <c r="F34" s="44">
         <v>2</v>
       </c>
       <c r="G34" s="42" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H34" s="40"/>
       <c r="I34" s="40" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="89"/>
-      <c r="B35" s="94"/>
-      <c r="C35" s="91"/>
-      <c r="D35" s="82"/>
-      <c r="E35" s="84"/>
+        <v>116</v>
+      </c>
+      <c r="J34" s="82"/>
+    </row>
+    <row r="35" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="95"/>
+      <c r="B35" s="100"/>
+      <c r="C35" s="97"/>
+      <c r="D35" s="88"/>
+      <c r="E35" s="90"/>
       <c r="F35" s="44">
         <v>3</v>
       </c>
       <c r="G35" s="42" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="H35" s="40"/>
       <c r="I35" s="40"/>
-    </row>
-    <row r="36" spans="1:9" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="89"/>
-      <c r="B36" s="94"/>
-      <c r="C36" s="91"/>
-      <c r="D36" s="82"/>
-      <c r="E36" s="84"/>
+      <c r="J35" s="82"/>
+    </row>
+    <row r="36" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="95"/>
+      <c r="B36" s="100"/>
+      <c r="C36" s="97"/>
+      <c r="D36" s="88"/>
+      <c r="E36" s="90"/>
       <c r="F36" s="44">
         <v>4</v>
       </c>
       <c r="G36" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="H36" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="H36" s="40" t="s">
-        <v>107</v>
-      </c>
       <c r="I36" s="40"/>
-    </row>
-    <row r="37" spans="1:9" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="89"/>
-      <c r="B37" s="94"/>
-      <c r="C37" s="91"/>
-      <c r="D37" s="82"/>
-      <c r="E37" s="84"/>
+      <c r="J36" s="82"/>
+    </row>
+    <row r="37" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="95"/>
+      <c r="B37" s="100"/>
+      <c r="C37" s="97"/>
+      <c r="D37" s="88"/>
+      <c r="E37" s="90"/>
       <c r="F37" s="44">
         <v>5</v>
       </c>
@@ -3223,13 +3320,14 @@
       <c r="I37" s="40" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" s="43" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="89"/>
-      <c r="B38" s="94"/>
-      <c r="C38" s="91"/>
-      <c r="D38" s="82"/>
-      <c r="E38" s="84"/>
+      <c r="J37" s="82"/>
+    </row>
+    <row r="38" spans="1:10" s="43" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="95"/>
+      <c r="B38" s="100"/>
+      <c r="C38" s="97"/>
+      <c r="D38" s="88"/>
+      <c r="E38" s="90"/>
       <c r="F38" s="44">
         <v>6</v>
       </c>
@@ -3240,15 +3338,16 @@
         <v>72</v>
       </c>
       <c r="I38" s="40" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="89"/>
-      <c r="B39" s="94"/>
-      <c r="C39" s="91"/>
-      <c r="D39" s="82"/>
-      <c r="E39" s="84"/>
+        <v>158</v>
+      </c>
+      <c r="J38" s="82"/>
+    </row>
+    <row r="39" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="95"/>
+      <c r="B39" s="100"/>
+      <c r="C39" s="97"/>
+      <c r="D39" s="88"/>
+      <c r="E39" s="90"/>
       <c r="F39" s="44">
         <v>7</v>
       </c>
@@ -3261,13 +3360,14 @@
       <c r="I39" s="40" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="89"/>
-      <c r="B40" s="94"/>
-      <c r="C40" s="91"/>
-      <c r="D40" s="82"/>
-      <c r="E40" s="84"/>
+      <c r="J39" s="82"/>
+    </row>
+    <row r="40" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="95"/>
+      <c r="B40" s="100"/>
+      <c r="C40" s="97"/>
+      <c r="D40" s="88"/>
+      <c r="E40" s="90"/>
       <c r="F40" s="44">
         <v>8</v>
       </c>
@@ -3276,37 +3376,38 @@
       </c>
       <c r="H40" s="40"/>
       <c r="I40" s="40" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="96" t="s">
+        <v>119</v>
+      </c>
+      <c r="J40" s="83"/>
+    </row>
+    <row r="41" spans="1:10" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="102" t="s">
         <v>63</v>
       </c>
-      <c r="B41" s="96"/>
-      <c r="C41" s="96"/>
-      <c r="D41" s="96"/>
-      <c r="E41" s="96"/>
-      <c r="F41" s="96"/>
-      <c r="G41" s="96"/>
-      <c r="H41" s="96"/>
-      <c r="I41" s="96"/>
-    </row>
-    <row r="42" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="88">
+      <c r="B41" s="102"/>
+      <c r="C41" s="102"/>
+      <c r="D41" s="102"/>
+      <c r="E41" s="102"/>
+      <c r="F41" s="102"/>
+      <c r="G41" s="102"/>
+      <c r="H41" s="102"/>
+      <c r="I41" s="102"/>
+    </row>
+    <row r="42" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="94">
         <v>21</v>
       </c>
-      <c r="B42" s="93" t="s">
+      <c r="B42" s="99" t="s">
         <v>91</v>
       </c>
-      <c r="C42" s="90" t="s">
-        <v>122</v>
-      </c>
-      <c r="D42" s="81" t="s">
-        <v>155</v>
-      </c>
-      <c r="E42" s="81" t="s">
-        <v>171</v>
+      <c r="C42" s="96" t="s">
+        <v>121</v>
+      </c>
+      <c r="D42" s="87" t="s">
+        <v>151</v>
+      </c>
+      <c r="E42" s="87" t="s">
+        <v>175</v>
       </c>
       <c r="F42" s="44">
         <v>1</v>
@@ -3318,56 +3419,61 @@
       <c r="I42" s="38" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="89"/>
-      <c r="B43" s="94"/>
-      <c r="C43" s="91"/>
-      <c r="D43" s="82"/>
-      <c r="E43" s="82"/>
+      <c r="J42" s="84" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="95"/>
+      <c r="B43" s="100"/>
+      <c r="C43" s="97"/>
+      <c r="D43" s="88"/>
+      <c r="E43" s="88"/>
       <c r="F43" s="44">
         <v>2</v>
       </c>
       <c r="G43" s="42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H43" s="40"/>
       <c r="I43" s="40" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" s="43" customFormat="1" ht="110.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="89"/>
-      <c r="B44" s="94"/>
-      <c r="C44" s="91"/>
-      <c r="D44" s="82"/>
-      <c r="E44" s="82"/>
+        <v>116</v>
+      </c>
+      <c r="J43" s="85"/>
+    </row>
+    <row r="44" spans="1:10" s="43" customFormat="1" ht="110.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="95"/>
+      <c r="B44" s="100"/>
+      <c r="C44" s="97"/>
+      <c r="D44" s="88"/>
+      <c r="E44" s="88"/>
       <c r="F44" s="44">
         <v>3</v>
       </c>
       <c r="G44" s="42" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H44" s="40"/>
       <c r="I44" s="40" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="88">
+      <c r="J44" s="86"/>
+    </row>
+    <row r="45" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="94">
         <v>21</v>
       </c>
-      <c r="B45" s="93" t="s">
+      <c r="B45" s="99" t="s">
         <v>92</v>
       </c>
-      <c r="C45" s="90" t="s">
-        <v>124</v>
-      </c>
-      <c r="D45" s="81" t="s">
-        <v>164</v>
-      </c>
-      <c r="E45" s="81" t="s">
-        <v>171</v>
+      <c r="C45" s="96" t="s">
+        <v>123</v>
+      </c>
+      <c r="D45" s="87" t="s">
+        <v>160</v>
+      </c>
+      <c r="E45" s="87" t="s">
+        <v>166</v>
       </c>
       <c r="F45" s="44">
         <v>1</v>
@@ -3379,56 +3485,61 @@
       <c r="I45" s="38" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="89"/>
-      <c r="B46" s="94"/>
-      <c r="C46" s="91"/>
-      <c r="D46" s="82"/>
-      <c r="E46" s="82"/>
+      <c r="J45" s="81" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="95"/>
+      <c r="B46" s="100"/>
+      <c r="C46" s="97"/>
+      <c r="D46" s="88"/>
+      <c r="E46" s="88"/>
       <c r="F46" s="44">
         <v>2</v>
       </c>
       <c r="G46" s="42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H46" s="40"/>
       <c r="I46" s="40" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" s="43" customFormat="1" ht="110.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="89"/>
-      <c r="B47" s="94"/>
-      <c r="C47" s="91"/>
-      <c r="D47" s="82"/>
-      <c r="E47" s="82"/>
+        <v>116</v>
+      </c>
+      <c r="J46" s="82"/>
+    </row>
+    <row r="47" spans="1:10" s="43" customFormat="1" ht="110.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="95"/>
+      <c r="B47" s="100"/>
+      <c r="C47" s="97"/>
+      <c r="D47" s="88"/>
+      <c r="E47" s="88"/>
       <c r="F47" s="44">
         <v>3</v>
       </c>
       <c r="G47" s="42" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H47" s="40"/>
       <c r="I47" s="40" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="88">
+        <v>165</v>
+      </c>
+      <c r="J47" s="83"/>
+    </row>
+    <row r="48" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="94">
         <v>21</v>
       </c>
-      <c r="B48" s="93" t="s">
+      <c r="B48" s="99" t="s">
         <v>93</v>
       </c>
-      <c r="C48" s="90" t="s">
+      <c r="C48" s="96" t="s">
         <v>93</v>
       </c>
-      <c r="D48" s="81" t="s">
-        <v>165</v>
-      </c>
-      <c r="E48" s="81" t="s">
-        <v>171</v>
+      <c r="D48" s="87" t="s">
+        <v>161</v>
+      </c>
+      <c r="E48" s="87" t="s">
+        <v>175</v>
       </c>
       <c r="F48" s="44">
         <v>1</v>
@@ -3440,56 +3551,61 @@
       <c r="I48" s="38" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="89"/>
-      <c r="B49" s="94"/>
-      <c r="C49" s="91"/>
-      <c r="D49" s="82"/>
-      <c r="E49" s="82"/>
+      <c r="J48" s="81" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="95"/>
+      <c r="B49" s="100"/>
+      <c r="C49" s="97"/>
+      <c r="D49" s="88"/>
+      <c r="E49" s="88"/>
       <c r="F49" s="44">
         <v>2</v>
       </c>
       <c r="G49" s="42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H49" s="40"/>
       <c r="I49" s="40" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" s="43" customFormat="1" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="89"/>
-      <c r="B50" s="94"/>
-      <c r="C50" s="91"/>
-      <c r="D50" s="82"/>
-      <c r="E50" s="82"/>
+        <v>116</v>
+      </c>
+      <c r="J49" s="82"/>
+    </row>
+    <row r="50" spans="1:10" s="43" customFormat="1" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="95"/>
+      <c r="B50" s="100"/>
+      <c r="C50" s="97"/>
+      <c r="D50" s="88"/>
+      <c r="E50" s="88"/>
       <c r="F50" s="44">
         <v>4</v>
       </c>
       <c r="G50" s="42" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H50" s="40"/>
       <c r="I50" s="40" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="88">
+        <v>125</v>
+      </c>
+      <c r="J50" s="83"/>
+    </row>
+    <row r="51" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="94">
         <v>1</v>
       </c>
-      <c r="B51" s="93" t="s">
+      <c r="B51" s="99" t="s">
         <v>94</v>
       </c>
-      <c r="C51" s="90" t="s">
+      <c r="C51" s="96" t="s">
+        <v>130</v>
+      </c>
+      <c r="D51" s="87" t="s">
         <v>131</v>
       </c>
-      <c r="D51" s="81" t="s">
-        <v>132</v>
-      </c>
-      <c r="E51" s="83" t="s">
-        <v>171</v>
+      <c r="E51" s="89" t="s">
+        <v>175</v>
       </c>
       <c r="F51" s="44">
         <v>1</v>
@@ -3501,64 +3617,70 @@
       <c r="I51" s="38" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="89"/>
-      <c r="B52" s="94"/>
-      <c r="C52" s="91"/>
-      <c r="D52" s="82"/>
-      <c r="E52" s="84"/>
+      <c r="J51" s="81" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="95"/>
+      <c r="B52" s="100"/>
+      <c r="C52" s="97"/>
+      <c r="D52" s="88"/>
+      <c r="E52" s="90"/>
       <c r="F52" s="44">
         <v>2</v>
       </c>
       <c r="G52" s="42" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H52" s="40"/>
       <c r="I52" s="40" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="89"/>
-      <c r="B53" s="94"/>
-      <c r="C53" s="91"/>
-      <c r="D53" s="82"/>
-      <c r="E53" s="84"/>
+      <c r="J52" s="82"/>
+    </row>
+    <row r="53" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="95"/>
+      <c r="B53" s="100"/>
+      <c r="C53" s="97"/>
+      <c r="D53" s="88"/>
+      <c r="E53" s="90"/>
       <c r="F53" s="44">
         <v>3</v>
       </c>
       <c r="G53" s="42" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="H53" s="40"/>
       <c r="I53" s="40" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" s="43" customFormat="1" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="89"/>
-      <c r="B54" s="94"/>
-      <c r="C54" s="91"/>
-      <c r="D54" s="82"/>
-      <c r="E54" s="84"/>
+        <v>104</v>
+      </c>
+      <c r="J53" s="82"/>
+    </row>
+    <row r="54" spans="1:10" s="43" customFormat="1" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="95"/>
+      <c r="B54" s="100"/>
+      <c r="C54" s="97"/>
+      <c r="D54" s="88"/>
+      <c r="E54" s="90"/>
       <c r="F54" s="44">
         <v>4</v>
       </c>
       <c r="G54" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="H54" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="H54" s="40" t="s">
-        <v>119</v>
-      </c>
       <c r="I54" s="40"/>
-    </row>
-    <row r="55" spans="1:9" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="89"/>
-      <c r="B55" s="94"/>
-      <c r="C55" s="91"/>
-      <c r="D55" s="82"/>
-      <c r="E55" s="84"/>
+      <c r="J54" s="82"/>
+    </row>
+    <row r="55" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="95"/>
+      <c r="B55" s="100"/>
+      <c r="C55" s="97"/>
+      <c r="D55" s="88"/>
+      <c r="E55" s="90"/>
       <c r="F55" s="44">
         <v>5</v>
       </c>
@@ -3569,13 +3691,14 @@
       <c r="I55" s="40" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" s="43" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="89"/>
-      <c r="B56" s="94"/>
-      <c r="C56" s="91"/>
-      <c r="D56" s="82"/>
-      <c r="E56" s="84"/>
+      <c r="J55" s="82"/>
+    </row>
+    <row r="56" spans="1:10" s="43" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="95"/>
+      <c r="B56" s="100"/>
+      <c r="C56" s="97"/>
+      <c r="D56" s="88"/>
+      <c r="E56" s="90"/>
       <c r="F56" s="44">
         <v>6</v>
       </c>
@@ -3583,18 +3706,19 @@
         <v>70</v>
       </c>
       <c r="H56" s="40" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I56" s="40" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="89"/>
-      <c r="B57" s="94"/>
-      <c r="C57" s="91"/>
-      <c r="D57" s="82"/>
-      <c r="E57" s="84"/>
+        <v>157</v>
+      </c>
+      <c r="J56" s="82"/>
+    </row>
+    <row r="57" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="95"/>
+      <c r="B57" s="100"/>
+      <c r="C57" s="97"/>
+      <c r="D57" s="88"/>
+      <c r="E57" s="90"/>
       <c r="F57" s="44">
         <v>7</v>
       </c>
@@ -3607,37 +3731,39 @@
       <c r="I57" s="40" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="89"/>
-      <c r="B58" s="94"/>
-      <c r="C58" s="91"/>
-      <c r="D58" s="82"/>
-      <c r="E58" s="84"/>
+      <c r="J57" s="82"/>
+    </row>
+    <row r="58" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="95"/>
+      <c r="B58" s="100"/>
+      <c r="C58" s="97"/>
+      <c r="D58" s="88"/>
+      <c r="E58" s="90"/>
       <c r="F58" s="44"/>
       <c r="G58" s="42" t="s">
         <v>74</v>
       </c>
       <c r="H58" s="40"/>
       <c r="I58" s="40" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="88">
+        <v>132</v>
+      </c>
+      <c r="J58" s="83"/>
+    </row>
+    <row r="59" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="94">
         <v>21</v>
       </c>
-      <c r="B59" s="93" t="s">
+      <c r="B59" s="99" t="s">
         <v>95</v>
       </c>
-      <c r="C59" s="90" t="s">
+      <c r="C59" s="96" t="s">
         <v>95</v>
       </c>
-      <c r="D59" s="81" t="s">
-        <v>134</v>
-      </c>
-      <c r="E59" s="81" t="s">
-        <v>171</v>
+      <c r="D59" s="87" t="s">
+        <v>180</v>
+      </c>
+      <c r="E59" s="87" t="s">
+        <v>175</v>
       </c>
       <c r="F59" s="44">
         <v>1</v>
@@ -3649,54 +3775,59 @@
       <c r="I59" s="38" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="89"/>
-      <c r="B60" s="94"/>
-      <c r="C60" s="91"/>
-      <c r="D60" s="82"/>
-      <c r="E60" s="82"/>
+      <c r="J59" s="81" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="95"/>
+      <c r="B60" s="100"/>
+      <c r="C60" s="97"/>
+      <c r="D60" s="88"/>
+      <c r="E60" s="88"/>
       <c r="F60" s="44">
         <v>2</v>
       </c>
       <c r="G60" s="42" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H60" s="40"/>
       <c r="I60" s="40" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" s="43" customFormat="1" ht="110.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="89"/>
-      <c r="B61" s="94"/>
-      <c r="C61" s="91"/>
-      <c r="D61" s="82"/>
-      <c r="E61" s="82"/>
+        <v>116</v>
+      </c>
+      <c r="J60" s="82"/>
+    </row>
+    <row r="61" spans="1:10" s="43" customFormat="1" ht="110.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="95"/>
+      <c r="B61" s="100"/>
+      <c r="C61" s="97"/>
+      <c r="D61" s="88"/>
+      <c r="E61" s="88"/>
       <c r="F61" s="44">
         <v>3</v>
       </c>
       <c r="G61" s="42" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H61" s="40"/>
       <c r="I61" s="40" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="92"/>
-      <c r="B62" s="98" t="s">
-        <v>127</v>
-      </c>
-      <c r="C62" s="92" t="s">
-        <v>127</v>
-      </c>
-      <c r="D62" s="97" t="s">
-        <v>139</v>
-      </c>
-      <c r="E62" s="97" t="s">
-        <v>171</v>
+        <v>179</v>
+      </c>
+      <c r="J61" s="83"/>
+    </row>
+    <row r="62" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="98"/>
+      <c r="B62" s="104" t="s">
+        <v>126</v>
+      </c>
+      <c r="C62" s="98" t="s">
+        <v>126</v>
+      </c>
+      <c r="D62" s="103" t="s">
+        <v>181</v>
+      </c>
+      <c r="E62" s="103" t="s">
+        <v>175</v>
       </c>
       <c r="F62" s="44">
         <v>1</v>
@@ -3708,54 +3839,59 @@
       <c r="I62" s="38" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="91"/>
-      <c r="B63" s="94"/>
-      <c r="C63" s="91"/>
-      <c r="D63" s="82"/>
-      <c r="E63" s="82"/>
+      <c r="J62" s="81" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="97"/>
+      <c r="B63" s="100"/>
+      <c r="C63" s="97"/>
+      <c r="D63" s="88"/>
+      <c r="E63" s="88"/>
       <c r="F63" s="44">
         <v>2</v>
       </c>
       <c r="G63" s="42" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H63" s="40"/>
       <c r="I63" s="40"/>
-    </row>
-    <row r="64" spans="1:9" s="43" customFormat="1" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="91"/>
-      <c r="B64" s="94"/>
-      <c r="C64" s="91"/>
-      <c r="D64" s="82"/>
-      <c r="E64" s="82"/>
+      <c r="J63" s="82"/>
+    </row>
+    <row r="64" spans="1:10" s="43" customFormat="1" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="97"/>
+      <c r="B64" s="100"/>
+      <c r="C64" s="97"/>
+      <c r="D64" s="88"/>
+      <c r="E64" s="88"/>
       <c r="F64" s="44">
         <v>3</v>
       </c>
       <c r="G64" s="42" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H64" s="40"/>
       <c r="I64" s="40" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="88">
+        <v>137</v>
+      </c>
+      <c r="J64" s="83"/>
+    </row>
+    <row r="65" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="94">
         <v>1</v>
       </c>
-      <c r="B65" s="85" t="s">
-        <v>129</v>
-      </c>
-      <c r="C65" s="90" t="s">
-        <v>146</v>
-      </c>
-      <c r="D65" s="81" t="s">
+      <c r="B65" s="91" t="s">
+        <v>128</v>
+      </c>
+      <c r="C65" s="96" t="s">
         <v>142</v>
       </c>
-      <c r="E65" s="83" t="s">
-        <v>171</v>
+      <c r="D65" s="87" t="s">
+        <v>138</v>
+      </c>
+      <c r="E65" s="89" t="s">
+        <v>175</v>
       </c>
       <c r="F65" s="44">
         <v>1</v>
@@ -3767,64 +3903,70 @@
       <c r="I65" s="38" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="89"/>
-      <c r="B66" s="86"/>
-      <c r="C66" s="91"/>
-      <c r="D66" s="82"/>
-      <c r="E66" s="84"/>
+      <c r="J65" s="81" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="95"/>
+      <c r="B66" s="92"/>
+      <c r="C66" s="97"/>
+      <c r="D66" s="88"/>
+      <c r="E66" s="90"/>
       <c r="F66" s="44">
         <v>2</v>
       </c>
       <c r="G66" s="42" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H66" s="40"/>
       <c r="I66" s="40" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="89"/>
-      <c r="B67" s="86"/>
-      <c r="C67" s="91"/>
-      <c r="D67" s="82"/>
-      <c r="E67" s="84"/>
+        <v>116</v>
+      </c>
+      <c r="J66" s="82"/>
+    </row>
+    <row r="67" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="95"/>
+      <c r="B67" s="92"/>
+      <c r="C67" s="97"/>
+      <c r="D67" s="88"/>
+      <c r="E67" s="90"/>
       <c r="F67" s="44">
         <v>4</v>
       </c>
       <c r="G67" s="42" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="H67" s="40"/>
       <c r="I67" s="40" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="89"/>
-      <c r="B68" s="86"/>
-      <c r="C68" s="91"/>
-      <c r="D68" s="82"/>
-      <c r="E68" s="84"/>
+        <v>125</v>
+      </c>
+      <c r="J67" s="82"/>
+    </row>
+    <row r="68" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="95"/>
+      <c r="B68" s="92"/>
+      <c r="C68" s="97"/>
+      <c r="D68" s="88"/>
+      <c r="E68" s="90"/>
       <c r="F68" s="44">
         <v>5</v>
       </c>
       <c r="G68" s="42" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="H68" s="40" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="I68" s="40"/>
-    </row>
-    <row r="69" spans="1:9" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="89"/>
-      <c r="B69" s="86"/>
-      <c r="C69" s="91"/>
-      <c r="D69" s="82"/>
-      <c r="E69" s="84"/>
+      <c r="J68" s="82"/>
+    </row>
+    <row r="69" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="95"/>
+      <c r="B69" s="92"/>
+      <c r="C69" s="97"/>
+      <c r="D69" s="88"/>
+      <c r="E69" s="90"/>
       <c r="F69" s="44">
         <v>6</v>
       </c>
@@ -3835,13 +3977,14 @@
       <c r="I69" s="40" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" s="43" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="89"/>
-      <c r="B70" s="86"/>
-      <c r="C70" s="91"/>
-      <c r="D70" s="82"/>
-      <c r="E70" s="84"/>
+      <c r="J69" s="82"/>
+    </row>
+    <row r="70" spans="1:10" s="43" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="95"/>
+      <c r="B70" s="92"/>
+      <c r="C70" s="97"/>
+      <c r="D70" s="88"/>
+      <c r="E70" s="90"/>
       <c r="F70" s="44">
         <v>7</v>
       </c>
@@ -3852,15 +3995,16 @@
         <v>59</v>
       </c>
       <c r="I70" s="40" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="89"/>
-      <c r="B71" s="86"/>
-      <c r="C71" s="91"/>
-      <c r="D71" s="82"/>
-      <c r="E71" s="84"/>
+        <v>157</v>
+      </c>
+      <c r="J70" s="82"/>
+    </row>
+    <row r="71" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="95"/>
+      <c r="B71" s="92"/>
+      <c r="C71" s="97"/>
+      <c r="D71" s="88"/>
+      <c r="E71" s="90"/>
       <c r="F71" s="44">
         <v>8</v>
       </c>
@@ -3873,13 +4017,14 @@
       <c r="I71" s="40" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="89"/>
-      <c r="B72" s="86"/>
-      <c r="C72" s="91"/>
-      <c r="D72" s="82"/>
-      <c r="E72" s="84"/>
+      <c r="J71" s="82"/>
+    </row>
+    <row r="72" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="95"/>
+      <c r="B72" s="92"/>
+      <c r="C72" s="97"/>
+      <c r="D72" s="88"/>
+      <c r="E72" s="90"/>
       <c r="F72" s="44">
         <v>9</v>
       </c>
@@ -3888,22 +4033,23 @@
       </c>
       <c r="H72" s="40"/>
       <c r="I72" s="40" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="88">
+        <v>144</v>
+      </c>
+      <c r="J72" s="83"/>
+    </row>
+    <row r="73" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="94">
         <v>1</v>
       </c>
-      <c r="B73" s="86"/>
-      <c r="C73" s="90" t="s">
-        <v>147</v>
-      </c>
-      <c r="D73" s="81" t="s">
-        <v>142</v>
-      </c>
-      <c r="E73" s="83" t="s">
-        <v>171</v>
+      <c r="B73" s="92"/>
+      <c r="C73" s="96" t="s">
+        <v>143</v>
+      </c>
+      <c r="D73" s="87" t="s">
+        <v>138</v>
+      </c>
+      <c r="E73" s="89" t="s">
+        <v>175</v>
       </c>
       <c r="F73" s="44">
         <v>1</v>
@@ -3915,64 +4061,70 @@
       <c r="I73" s="38" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="89"/>
-      <c r="B74" s="86"/>
-      <c r="C74" s="91"/>
-      <c r="D74" s="82"/>
-      <c r="E74" s="84"/>
+      <c r="J73" s="81" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="95"/>
+      <c r="B74" s="92"/>
+      <c r="C74" s="97"/>
+      <c r="D74" s="88"/>
+      <c r="E74" s="90"/>
       <c r="F74" s="44">
         <v>2</v>
       </c>
       <c r="G74" s="42" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H74" s="40"/>
       <c r="I74" s="40" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="89"/>
-      <c r="B75" s="86"/>
-      <c r="C75" s="91"/>
-      <c r="D75" s="82"/>
-      <c r="E75" s="84"/>
+        <v>116</v>
+      </c>
+      <c r="J74" s="82"/>
+    </row>
+    <row r="75" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="95"/>
+      <c r="B75" s="92"/>
+      <c r="C75" s="97"/>
+      <c r="D75" s="88"/>
+      <c r="E75" s="90"/>
       <c r="F75" s="44">
         <v>4</v>
       </c>
       <c r="G75" s="42" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="H75" s="40"/>
       <c r="I75" s="40" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="89"/>
-      <c r="B76" s="86"/>
-      <c r="C76" s="91"/>
-      <c r="D76" s="82"/>
-      <c r="E76" s="84"/>
+        <v>125</v>
+      </c>
+      <c r="J75" s="82"/>
+    </row>
+    <row r="76" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="95"/>
+      <c r="B76" s="92"/>
+      <c r="C76" s="97"/>
+      <c r="D76" s="88"/>
+      <c r="E76" s="90"/>
       <c r="F76" s="44">
         <v>5</v>
       </c>
       <c r="G76" s="42" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="H76" s="40" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="I76" s="40"/>
-    </row>
-    <row r="77" spans="1:9" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="89"/>
-      <c r="B77" s="86"/>
-      <c r="C77" s="91"/>
-      <c r="D77" s="82"/>
-      <c r="E77" s="84"/>
+      <c r="J76" s="82"/>
+    </row>
+    <row r="77" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="95"/>
+      <c r="B77" s="92"/>
+      <c r="C77" s="97"/>
+      <c r="D77" s="88"/>
+      <c r="E77" s="90"/>
       <c r="F77" s="44">
         <v>6</v>
       </c>
@@ -3983,13 +4135,14 @@
       <c r="I77" s="40" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" s="43" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="89"/>
-      <c r="B78" s="86"/>
-      <c r="C78" s="91"/>
-      <c r="D78" s="82"/>
-      <c r="E78" s="84"/>
+      <c r="J77" s="82"/>
+    </row>
+    <row r="78" spans="1:10" s="43" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="95"/>
+      <c r="B78" s="92"/>
+      <c r="C78" s="97"/>
+      <c r="D78" s="88"/>
+      <c r="E78" s="90"/>
       <c r="F78" s="44">
         <v>7</v>
       </c>
@@ -3997,18 +4150,19 @@
         <v>69</v>
       </c>
       <c r="H78" s="40" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="I78" s="40" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="89"/>
-      <c r="B79" s="86"/>
-      <c r="C79" s="91"/>
-      <c r="D79" s="82"/>
-      <c r="E79" s="84"/>
+        <v>157</v>
+      </c>
+      <c r="J78" s="82"/>
+    </row>
+    <row r="79" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="95"/>
+      <c r="B79" s="92"/>
+      <c r="C79" s="97"/>
+      <c r="D79" s="88"/>
+      <c r="E79" s="90"/>
       <c r="F79" s="44">
         <v>8</v>
       </c>
@@ -4021,13 +4175,14 @@
       <c r="I79" s="40" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="89"/>
-      <c r="B80" s="87"/>
-      <c r="C80" s="91"/>
-      <c r="D80" s="82"/>
-      <c r="E80" s="84"/>
+      <c r="J79" s="82"/>
+    </row>
+    <row r="80" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="95"/>
+      <c r="B80" s="93"/>
+      <c r="C80" s="97"/>
+      <c r="D80" s="88"/>
+      <c r="E80" s="90"/>
       <c r="F80" s="44">
         <v>9</v>
       </c>
@@ -4036,24 +4191,25 @@
       </c>
       <c r="H80" s="40"/>
       <c r="I80" s="40" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="88">
+        <v>146</v>
+      </c>
+      <c r="J80" s="83"/>
+    </row>
+    <row r="81" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="94">
         <v>1</v>
       </c>
-      <c r="B81" s="93" t="s">
-        <v>138</v>
-      </c>
-      <c r="C81" s="90" t="s">
-        <v>151</v>
-      </c>
-      <c r="D81" s="81" t="s">
-        <v>152</v>
-      </c>
-      <c r="E81" s="83" t="s">
-        <v>171</v>
+      <c r="B81" s="99" t="s">
+        <v>135</v>
+      </c>
+      <c r="C81" s="96" t="s">
+        <v>147</v>
+      </c>
+      <c r="D81" s="87" t="s">
+        <v>148</v>
+      </c>
+      <c r="E81" s="89" t="s">
+        <v>175</v>
       </c>
       <c r="F81" s="44">
         <v>1</v>
@@ -4065,97 +4221,53 @@
       <c r="I81" s="38" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="89"/>
-      <c r="B82" s="94"/>
-      <c r="C82" s="91"/>
-      <c r="D82" s="82"/>
-      <c r="E82" s="84"/>
+      <c r="J81" s="81" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="95"/>
+      <c r="B82" s="100"/>
+      <c r="C82" s="97"/>
+      <c r="D82" s="88"/>
+      <c r="E82" s="90"/>
       <c r="F82" s="44">
         <v>2</v>
       </c>
       <c r="G82" s="42" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H82" s="40"/>
       <c r="I82" s="40" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="89"/>
-      <c r="B83" s="94"/>
-      <c r="C83" s="91"/>
-      <c r="D83" s="82"/>
-      <c r="E83" s="84"/>
+        <v>167</v>
+      </c>
+      <c r="J82" s="82"/>
+    </row>
+    <row r="83" spans="1:10" s="43" customFormat="1" ht="125.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="95"/>
+      <c r="B83" s="100"/>
+      <c r="C83" s="97"/>
+      <c r="D83" s="88"/>
+      <c r="E83" s="90"/>
       <c r="F83" s="44">
         <v>4</v>
       </c>
       <c r="G83" s="42" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="H83" s="40"/>
       <c r="I83" s="40" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="88"/>
-      <c r="B84" s="93"/>
-      <c r="C84" s="90"/>
-      <c r="D84" s="81"/>
-      <c r="E84" s="83"/>
-      <c r="F84" s="44"/>
-      <c r="G84" s="41"/>
-      <c r="H84" s="38"/>
-      <c r="I84" s="38"/>
-    </row>
-    <row r="85" spans="1:9" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="89"/>
-      <c r="B85" s="94"/>
-      <c r="C85" s="91"/>
-      <c r="D85" s="82"/>
-      <c r="E85" s="84"/>
-      <c r="F85" s="44"/>
-      <c r="G85" s="42"/>
-      <c r="H85" s="40"/>
-      <c r="I85" s="40"/>
-    </row>
-    <row r="86" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="89"/>
-      <c r="B86" s="94"/>
-      <c r="C86" s="91"/>
-      <c r="D86" s="82"/>
-      <c r="E86" s="84"/>
-      <c r="F86" s="44"/>
-      <c r="G86" s="42"/>
-      <c r="H86" s="40"/>
-      <c r="I86" s="40"/>
-    </row>
-    <row r="87" spans="1:9" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="89"/>
-      <c r="B87" s="94"/>
-      <c r="C87" s="91"/>
-      <c r="D87" s="82"/>
-      <c r="E87" s="84"/>
-      <c r="F87" s="44"/>
-      <c r="G87" s="42"/>
-      <c r="H87" s="40"/>
-      <c r="I87" s="40"/>
+        <v>153</v>
+      </c>
+      <c r="J83" s="83"/>
     </row>
   </sheetData>
-  <mergeCells count="77">
-    <mergeCell ref="A81:A83"/>
-    <mergeCell ref="A84:A87"/>
-    <mergeCell ref="B84:B87"/>
-    <mergeCell ref="C84:C87"/>
-    <mergeCell ref="D84:D87"/>
-    <mergeCell ref="E84:E87"/>
+  <mergeCells count="86">
     <mergeCell ref="B81:B83"/>
     <mergeCell ref="C81:C83"/>
     <mergeCell ref="D81:D83"/>
     <mergeCell ref="E81:E83"/>
+    <mergeCell ref="A81:A83"/>
     <mergeCell ref="A9:A17"/>
     <mergeCell ref="B9:B17"/>
     <mergeCell ref="C9:C17"/>
@@ -4170,6 +4282,7 @@
     <mergeCell ref="D59:D61"/>
     <mergeCell ref="E59:E61"/>
     <mergeCell ref="D48:D50"/>
+    <mergeCell ref="D51:D58"/>
     <mergeCell ref="A25:A32"/>
     <mergeCell ref="B25:B32"/>
     <mergeCell ref="E33:E40"/>
@@ -4182,13 +4295,6 @@
     <mergeCell ref="C18:C24"/>
     <mergeCell ref="D18:D24"/>
     <mergeCell ref="E18:E24"/>
-    <mergeCell ref="D51:D58"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="E42:E44"/>
     <mergeCell ref="A45:A47"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="C45:C47"/>
@@ -4198,12 +4304,18 @@
     <mergeCell ref="D33:D40"/>
     <mergeCell ref="E45:E47"/>
     <mergeCell ref="D45:D47"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="E42:E44"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="B5:B8"/>
     <mergeCell ref="A5:A8"/>
     <mergeCell ref="C5:C8"/>
     <mergeCell ref="D5:D8"/>
     <mergeCell ref="E5:E8"/>
+    <mergeCell ref="A4:I4"/>
     <mergeCell ref="A62:A64"/>
     <mergeCell ref="A48:A50"/>
     <mergeCell ref="B48:B50"/>
@@ -4223,6 +4335,20 @@
     <mergeCell ref="E65:E72"/>
     <mergeCell ref="A73:A80"/>
     <mergeCell ref="C73:C80"/>
+    <mergeCell ref="J42:J44"/>
+    <mergeCell ref="J45:J47"/>
+    <mergeCell ref="J48:J50"/>
+    <mergeCell ref="J51:J58"/>
+    <mergeCell ref="J5:J8"/>
+    <mergeCell ref="J9:J17"/>
+    <mergeCell ref="J18:J24"/>
+    <mergeCell ref="J25:J32"/>
+    <mergeCell ref="J33:J40"/>
+    <mergeCell ref="J59:J61"/>
+    <mergeCell ref="J62:J64"/>
+    <mergeCell ref="J65:J72"/>
+    <mergeCell ref="J73:J80"/>
+    <mergeCell ref="J81:J83"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
